--- a/3.4 Pandas/report.xlsx
+++ b/3.4 Pandas/report.xlsx
@@ -442,9 +442,9 @@
   <cols>
     <col width="5" customWidth="1" min="1" max="1"/>
     <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="41" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="33" customWidth="1" min="5" max="5"/>
+    <col width="44" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -460,7 +460,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Средняя зарплата - "Аналитик"</t>
+          <t>Средняя зарплата - "Программист" и ещё 5</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -470,7 +470,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Количество вакансий - "Аналитик"</t>
+          <t>Количество вакансий - "Программист" и ещё 5</t>
         </is>
       </c>
     </row>
@@ -482,13 +482,13 @@
         <v>22287</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>23841</v>
+        <v>24436</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>1983</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>74</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +499,13 @@
         <v>23707</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>21548</v>
+        <v>22371</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>7833</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>352</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +516,13 @@
         <v>219599</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>26722</v>
+        <v>97678</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>16022</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>708</v>
+        <v>4126</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +533,13 @@
         <v>28590</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>27374</v>
+        <v>30342</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>33321</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1373</v>
+        <v>9434</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +550,13 @@
         <v>29328</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>32989</v>
+        <v>32793</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>53562</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>2235</v>
+        <v>14435</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +567,13 @@
         <v>30088</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>29941</v>
+        <v>34141</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>75070</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>3061</v>
+        <v>19511</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +584,13 @@
         <v>26334</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>25521</v>
+        <v>30209</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>52889</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>1709</v>
+        <v>13186</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +601,13 @@
         <v>24688</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>22614</v>
+        <v>28790</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>93494</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>3540</v>
+        <v>23815</v>
       </c>
     </row>
     <row r="10">
@@ -618,13 +618,13 @@
         <v>25240</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>24562</v>
+        <v>29298</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>142458</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>5453</v>
+        <v>36975</v>
       </c>
     </row>
     <row r="11">
@@ -635,13 +635,13 @@
         <v>26242</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>24603</v>
+        <v>31591</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>173897</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>5876</v>
+        <v>44156</v>
       </c>
     </row>
     <row r="12">
@@ -652,13 +652,13 @@
         <v>29618</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>22868</v>
+        <v>30004</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>234019</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>6995</v>
+        <v>57444</v>
       </c>
     </row>
     <row r="13">
@@ -669,13 +669,13 @@
         <v>26742</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>23432</v>
+        <v>29599</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>259571</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>8332</v>
+        <v>61729</v>
       </c>
     </row>
     <row r="14">
@@ -686,13 +686,13 @@
         <v>26819</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>21071</v>
+        <v>26791</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>284763</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>8643</v>
+        <v>72730</v>
       </c>
     </row>
     <row r="15">
@@ -703,13 +703,13 @@
         <v>32258</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>21166</v>
+        <v>34160</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>332460</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>12466</v>
+        <v>86519</v>
       </c>
     </row>
     <row r="16">
@@ -720,13 +720,13 @@
         <v>30514</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>20982</v>
+        <v>35318</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>391464</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>16770</v>
+        <v>104782</v>
       </c>
     </row>
     <row r="17">
@@ -737,13 +737,13 @@
         <v>35003</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>22429</v>
+        <v>41322</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>517670</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>21667</v>
+        <v>128937</v>
       </c>
     </row>
     <row r="18">
@@ -754,13 +754,13 @@
         <v>33874</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>23124</v>
+        <v>39867</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>535956</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>27273</v>
+        <v>137555</v>
       </c>
     </row>
     <row r="19">
@@ -771,13 +771,13 @@
         <v>34276</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>22656</v>
+        <v>40151</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>489472</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>28659</v>
+        <v>125823</v>
       </c>
     </row>
     <row r="20">
@@ -788,13 +788,13 @@
         <v>38813</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>25190</v>
+        <v>46865</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>287915</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>17962</v>
+        <v>74742</v>
       </c>
     </row>
     <row r="21">
@@ -805,13 +805,13 @@
         <v>48550</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>30186</v>
+        <v>54432</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>91142</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>6638</v>
+        <v>22866</v>
       </c>
     </row>
   </sheetData>

--- a/3.4 Pandas/report.xlsx
+++ b/3.4 Pandas/report.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Статистика по годам" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Статистика по городам" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -63,10 +64,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -817,4 +819,231 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="16" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Город</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Уровень зарплат</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Город</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Доля вакансий</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>40201</v>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>0.334026018899322</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>38461</v>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>0.1014048968812217</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Новосибирск</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>34765</v>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Минск</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>0.04061388562982566</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Екатеринбург</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>32600</v>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Киев</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>0.03216914223228148</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Краснодар</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>31798</v>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Новосибирск</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>0.02363188261188267</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Казань</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>29840</v>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Нижний Новгород</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0.02144437701366958</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Ростов-на-Дону</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>28090</v>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Екатеринбург</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0.01972705996450027</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Пермь</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>27517</v>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Алматы</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0.01892116268106615</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Самара</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>27097</v>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Воронеж</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0.01859600619490592</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Нижний Новгород</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>26376</v>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>Казань</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>0.01856606725806701</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>